--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,18</t>
+          <t>4,45; 9,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,21</t>
+          <t>3,96; 8,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,01</t>
+          <t>2,63; 6,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,67</t>
+          <t>3,15; 11,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,49</t>
+          <t>5,09; 9,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,04</t>
+          <t>6,31; 12,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,72</t>
+          <t>4,11; 9,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 16,7</t>
+          <t>6,48; 16,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,68</t>
+          <t>5,01; 8,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,02</t>
+          <t>5,78; 9,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,14</t>
+          <t>3,76; 6,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,85</t>
+          <t>5,43; 11,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,85</t>
+          <t>4,33; 7,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,93</t>
+          <t>6,55; 10,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,77</t>
+          <t>6,14; 11,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,63</t>
+          <t>11,23; 19,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,12</t>
+          <t>11,87; 17,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,62</t>
+          <t>6,67; 11,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,53</t>
+          <t>8,21; 13,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,24</t>
+          <t>12,22; 19,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,4</t>
+          <t>8,06; 11,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,49</t>
+          <t>7,2; 10,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,31</t>
+          <t>7,87; 11,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,99</t>
+          <t>12,74; 18,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,33</t>
+          <t>8,42; 13,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,39</t>
+          <t>9,91; 15,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,16</t>
+          <t>9,46; 14,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,04</t>
+          <t>15,15; 21,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,47</t>
+          <t>17,41; 23,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,01</t>
+          <t>15,99; 22,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,54</t>
+          <t>11,98; 17,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,68</t>
+          <t>19,75; 25,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 17,96</t>
+          <t>13,77; 17,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,93</t>
+          <t>13,89; 17,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 14,89</t>
+          <t>11,31; 14,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,99</t>
+          <t>18,3; 23,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,91</t>
+          <t>15,08; 22,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,42</t>
+          <t>11,12; 17,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 22,26</t>
+          <t>15,53; 21,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 28,65</t>
+          <t>19,48; 28,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 33,69</t>
+          <t>25,84; 33,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 31,0</t>
+          <t>23,42; 31,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,98</t>
+          <t>20,62; 26,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 38,15</t>
+          <t>31,78; 38,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,74</t>
+          <t>21,54; 26,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,9</t>
+          <t>18,04; 23,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 23,72</t>
+          <t>19,02; 23,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,36</t>
+          <t>26,27; 32,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,36; 35,66</t>
+          <t>26,66; 35,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,75; 31,56</t>
+          <t>22,42; 31,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,9</t>
+          <t>20,36; 29,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,95; 42,63</t>
+          <t>34,79; 42,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,46; 43,09</t>
+          <t>33,9; 43,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,5; 51,38</t>
+          <t>41,28; 51,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,71; 45,9</t>
+          <t>36,82; 45,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,2; 48,6</t>
+          <t>42,26; 48,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,62; 38,56</t>
+          <t>31,58; 37,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,41; 40,14</t>
+          <t>33,47; 39,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,18; 36,48</t>
+          <t>30,21; 36,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,05; 44,93</t>
+          <t>39,86; 44,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,17; 51,92</t>
+          <t>42,9; 51,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,14; 54,08</t>
+          <t>45,18; 54,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,01; 45,87</t>
+          <t>37,66; 45,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,1; 45,41</t>
+          <t>39,58; 45,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,44; 64,85</t>
+          <t>57,48; 64,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,62; 72,46</t>
+          <t>65,33; 72,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,09; 65,34</t>
+          <t>58,12; 65,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,68; 78,54</t>
+          <t>64,83; 78,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,15; 58,15</t>
+          <t>52,21; 58,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,9; 63,3</t>
+          <t>57,86; 63,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,14; 55,84</t>
+          <t>50,48; 55,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,02; 68,02</t>
+          <t>54,74; 66,39</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,73; 19,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,47; 20,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,26; 19,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,64; 28,23</t>
+          <t>24,6; 28,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,51; 30,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,87; 32,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,29; 30,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,74; 44,88</t>
+          <t>36,74; 45,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,78; 24,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,16; 26,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,85; 24,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>31,7; 37,28</t>
+          <t>31,65; 36,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,18</t>
+          <t>4,54; 9,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,14</t>
+          <t>3,82; 8,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,62</t>
+          <t>2,48; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,91</t>
+          <t>4,93; 9,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,13</t>
+          <t>6,77; 12,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,01</t>
+          <t>4,06; 8,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,4</t>
+          <t>5,26; 8,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,29</t>
+          <t>5,62; 9,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,87</t>
+          <t>3,77; 6,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,91</t>
+          <t>4,2; 7,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,9</t>
+          <t>6,44; 10,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 11,13</t>
+          <t>6,17; 10,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,05</t>
+          <t>11,34; 17,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,37</t>
+          <t>6,68; 11,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,53</t>
+          <t>8,52; 13,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,46</t>
+          <t>8,06; 11,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 10,32</t>
+          <t>7,13; 10,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,48</t>
+          <t>7,98; 11,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,28</t>
+          <t>8,36; 13,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,12</t>
+          <t>9,98; 15,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 14,17</t>
+          <t>9,02; 14,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 23,88</t>
+          <t>17,13; 23,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,15</t>
+          <t>16,14; 22,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,5</t>
+          <t>12,1; 17,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 17,84</t>
+          <t>13,74; 17,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 17,66</t>
+          <t>13,93; 17,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 14,9</t>
+          <t>11,33; 15,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 22,04</t>
+          <t>14,84; 21,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 17,1</t>
+          <t>11,29; 17,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,9</t>
+          <t>15,68; 22,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 33,86</t>
+          <t>26,26; 34,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,42; 31,01</t>
+          <t>23,21; 30,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 26,97</t>
+          <t>20,1; 27,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,54; 26,8</t>
+          <t>21,47; 26,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 23,02</t>
+          <t>18,27; 23,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,75</t>
+          <t>18,81; 23,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,66; 35,86</t>
+          <t>26,39; 35,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,42; 31,71</t>
+          <t>22,5; 31,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,36; 29,09</t>
+          <t>20,42; 28,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,9; 43,34</t>
+          <t>33,86; 43,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,28; 51,35</t>
+          <t>41,2; 50,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,82; 45,84</t>
+          <t>36,98; 46,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,58; 37,93</t>
+          <t>31,46; 38,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,47; 39,85</t>
+          <t>33,13; 40,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,21; 36,47</t>
+          <t>29,95; 36,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,9; 51,86</t>
+          <t>42,74; 51,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,18; 54,16</t>
+          <t>45,05; 54,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,66; 45,96</t>
+          <t>37,91; 45,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,48; 64,63</t>
+          <t>57,56; 65,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,33; 72,62</t>
+          <t>65,42; 72,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,12; 65,66</t>
+          <t>57,77; 65,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,21; 58,24</t>
+          <t>52,43; 57,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,86; 63,28</t>
+          <t>57,84; 63,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,48; 55,91</t>
+          <t>50,36; 56,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,49</t>
+          <t>16,8; 19,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,47; 20,48</t>
+          <t>17,57; 20,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,85</t>
+          <t>17,18; 19,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,73</t>
+          <t>27,68; 30,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,87; 32,95</t>
+          <t>29,83; 32,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,29; 30,73</t>
+          <t>27,27; 30,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,86</t>
+          <t>22,73; 24,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,24</t>
+          <t>24,16; 26,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 24,91</t>
+          <t>22,8; 24,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,15</t>
+          <t>4,34; 9,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,13</t>
+          <t>3,91; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,6</t>
+          <t>2,54; 7,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,08</t>
+          <t>3,13; 10,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,76</t>
+          <t>4,87; 9,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,27</t>
+          <t>6,49; 12,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,91</t>
+          <t>4,08; 8,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,28</t>
+          <t>6,76; 16,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,69</t>
+          <t>5,4; 8,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,08</t>
+          <t>5,76; 9,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,92</t>
+          <t>3,85; 7,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,6</t>
+          <t>5,73; 11,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,82</t>
+          <t>4,18; 7,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 10,97</t>
+          <t>6,18; 10,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,84</t>
+          <t>6,22; 10,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 19,66</t>
+          <t>11,18; 19,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 17,32</t>
+          <t>11,44; 17,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,56</t>
+          <t>6,82; 11,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,67</t>
+          <t>8,51; 13,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 19,56</t>
+          <t>12,07; 19,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,42</t>
+          <t>7,96; 11,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,27</t>
+          <t>7,22; 10,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,36</t>
+          <t>7,96; 11,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,74; 18,28</t>
+          <t>12,58; 17,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,42</t>
+          <t>8,62; 13,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,37</t>
+          <t>10,02; 15,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,06</t>
+          <t>8,94; 14,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,79</t>
+          <t>15,09; 22,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 23,38</t>
+          <t>17,56; 23,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 22,07</t>
+          <t>16,0; 22,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 17,65</t>
+          <t>12,2; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,43</t>
+          <t>19,75; 25,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 17,8</t>
+          <t>13,83; 17,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 17,76</t>
+          <t>13,91; 17,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,04</t>
+          <t>11,28; 14,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,04</t>
+          <t>18,53; 22,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,86</t>
+          <t>15,04; 21,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,5</t>
+          <t>11,33; 17,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 22,01</t>
+          <t>15,88; 22,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 28,85</t>
+          <t>18,94; 28,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 34,23</t>
+          <t>25,7; 33,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,21; 30,73</t>
+          <t>23,45; 31,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 27,25</t>
+          <t>20,21; 26,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,0</t>
+          <t>31,7; 38,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 26,88</t>
+          <t>21,61; 26,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 23,18</t>
+          <t>17,88; 22,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,46</t>
+          <t>18,88; 23,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,57</t>
+          <t>26,32; 32,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,39; 35,61</t>
+          <t>26,36; 35,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 31,51</t>
+          <t>22,75; 31,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,42; 28,61</t>
+          <t>20,98; 28,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 42,64</t>
+          <t>34,95; 42,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,86; 43,68</t>
+          <t>33,46; 43,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,2; 50,96</t>
+          <t>41,5; 51,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,98; 46,36</t>
+          <t>36,71; 45,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,26; 48,56</t>
+          <t>42,2; 48,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,46; 38,06</t>
+          <t>31,62; 38,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,13; 40,2</t>
+          <t>33,41; 40,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 36,44</t>
+          <t>30,18; 36,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,86; 44,7</t>
+          <t>40,05; 44,93</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,74; 51,84</t>
+          <t>43,17; 51,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,05; 54,09</t>
+          <t>45,14; 54,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,91; 45,35</t>
+          <t>38,01; 45,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,58; 45,4</t>
+          <t>39,1; 45,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,56; 65,17</t>
+          <t>57,44; 64,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,42; 72,13</t>
+          <t>65,62; 72,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,77; 65,32</t>
+          <t>58,09; 65,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,83; 78,62</t>
+          <t>64,68; 78,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,43; 57,89</t>
+          <t>52,15; 58,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,84; 63,53</t>
+          <t>57,9; 63,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,36; 56,13</t>
+          <t>50,14; 55,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,74; 66,39</t>
+          <t>55,02; 68,02</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,8; 19,53</t>
+          <t>16,88; 19,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,57; 20,36</t>
+          <t>17,52; 20,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 19,93</t>
+          <t>17,39; 20,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,6; 28,14</t>
+          <t>24,64; 28,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,68; 30,65</t>
+          <t>27,78; 30,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,83; 32,94</t>
+          <t>29,68; 32,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,27; 30,57</t>
+          <t>27,19; 30,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,74; 45,56</t>
+          <t>36,74; 44,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 24,82</t>
+          <t>22,66; 24,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,28</t>
+          <t>24,22; 26,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,8; 24,93</t>
+          <t>22,78; 24,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 36,58</t>
+          <t>31,7; 37,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,67</t>
+          <t>3,53; 12,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 16,7</t>
+          <t>6,9; 16,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,85</t>
+          <t>5,89; 12,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,63</t>
+          <t>11,42; 20,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,24</t>
+          <t>8,87; 18,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,99</t>
+          <t>11,15; 17,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,04</t>
+          <t>15,26; 22,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,68</t>
+          <t>20,22; 26,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,99</t>
+          <t>18,85; 23,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>25,79%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 28,65</t>
+          <t>8,54; 28,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 38,15</t>
+          <t>29,12; 37,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,36</t>
+          <t>15,8; 31,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>45,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,61%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,95; 42,63</t>
+          <t>35,38; 43,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,2; 48,6</t>
+          <t>42,48; 48,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,05; 44,93</t>
+          <t>40,33; 45,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>61,23%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>55,79%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,17; 51,92</t>
+          <t>32,24; 43,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,14; 54,08</t>
+          <t>34,04; 46,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,01; 45,87</t>
+          <t>27,13; 37,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,1; 45,41</t>
+          <t>31,31; 39,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,44; 64,85</t>
+          <t>49,43; 59,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,62; 72,46</t>
+          <t>54,17; 64,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,09; 65,34</t>
+          <t>48,73; 59,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,68; 78,54</t>
+          <t>50,87; 88,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,15; 58,15</t>
+          <t>43,28; 50,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,9; 63,3</t>
+          <t>46,59; 54,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,14; 55,84</t>
+          <t>40,19; 47,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,02; 68,02</t>
+          <t>43,37; 79,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>60,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>77,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>63,3%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>67,74%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>54,29; 66,95</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>53,87; 67,68</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48,54; 59,59</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46,7; 55,95</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>62,62; 73,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>73,33; 82,32</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 74,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75,65; 81,37</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60,91; 69,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67,64; 74,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59,43; 67,21</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>64,96; 70,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,2%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25,23%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,88; 19,53</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>17,52; 20,32</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>17,39; 20,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>24,64; 28,23</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19,67; 27,49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>27,78; 30,92</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>29,68; 32,79</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>27,19; 30,24</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>36,74; 44,88</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35,85; 50,76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>22,66; 24,77</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>24,22; 26,34</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>22,78; 24,83</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>31,7; 37,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 39,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,18</t>
+          <t>4,57; 9,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,21</t>
+          <t>3,81; 8,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,01</t>
+          <t>2,49; 6,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,27</t>
+          <t>3,45; 12,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,49</t>
+          <t>4,93; 10,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,04</t>
+          <t>6,57; 12,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,72</t>
+          <t>4,18; 9,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,94</t>
+          <t>7,04; 17,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,68</t>
+          <t>5,26; 8,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,02</t>
+          <t>5,65; 8,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,14</t>
+          <t>3,79; 7,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,39</t>
+          <t>6,0; 12,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,85</t>
+          <t>4,2; 7,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,93</t>
+          <t>6,42; 10,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,77</t>
+          <t>6,14; 10,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 20,16</t>
+          <t>11,27; 20,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,12</t>
+          <t>11,25; 17,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,62</t>
+          <t>6,51; 11,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,53</t>
+          <t>8,23; 13,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 18,28</t>
+          <t>8,46; 18,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,4</t>
+          <t>7,96; 11,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,49</t>
+          <t>7,14; 10,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,31</t>
+          <t>7,83; 11,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,82</t>
+          <t>10,72; 17,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,33</t>
+          <t>8,41; 13,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,39</t>
+          <t>9,88; 15,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,16</t>
+          <t>9,12; 14,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 22,3</t>
+          <t>15,34; 22,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,47</t>
+          <t>17,45; 23,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,01</t>
+          <t>16,29; 22,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,54</t>
+          <t>12,01; 17,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,2</t>
+          <t>20,41; 26,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 17,96</t>
+          <t>13,88; 17,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,93</t>
+          <t>13,92; 17,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 14,89</t>
+          <t>11,37; 15,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,85; 23,49</t>
+          <t>18,82; 23,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,91</t>
+          <t>14,81; 21,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,42</t>
+          <t>11,48; 17,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 22,26</t>
+          <t>15,38; 22,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 28,04</t>
+          <t>8,45; 27,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 33,69</t>
+          <t>25,96; 33,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 31,0</t>
+          <t>23,28; 30,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,98</t>
+          <t>19,85; 27,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,12; 37,53</t>
+          <t>28,05; 37,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,74</t>
+          <t>21,5; 26,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,9</t>
+          <t>18,16; 23,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 23,72</t>
+          <t>18,81; 23,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 31,28</t>
+          <t>15,25; 31,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,36; 35,66</t>
+          <t>26,07; 35,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,75; 31,56</t>
+          <t>22,45; 31,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,9</t>
+          <t>20,8; 29,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,38; 43,06</t>
+          <t>35,72; 42,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,46; 43,09</t>
+          <t>33,76; 43,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,5; 51,38</t>
+          <t>40,89; 50,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,71; 45,9</t>
+          <t>36,36; 45,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,48; 48,85</t>
+          <t>42,72; 48,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,62; 38,56</t>
+          <t>31,39; 38,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,41; 40,14</t>
+          <t>33,24; 40,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,18; 36,48</t>
+          <t>30,33; 36,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,33; 45,17</t>
+          <t>40,02; 45,1</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,24; 43,0</t>
+          <t>32,52; 43,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 46,25</t>
+          <t>34,16; 46,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 37,61</t>
+          <t>27,14; 37,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,31; 39,62</t>
+          <t>31,77; 39,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,43; 59,78</t>
+          <t>49,51; 59,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 64,94</t>
+          <t>53,8; 64,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,73; 59,35</t>
+          <t>49,09; 59,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50,87; 88,19</t>
+          <t>50,29; 86,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,28; 50,62</t>
+          <t>43,06; 50,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,59; 54,63</t>
+          <t>46,24; 54,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40,19; 47,88</t>
+          <t>39,65; 47,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,37; 79,73</t>
+          <t>43,2; 79,03</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>54,29; 66,95</t>
+          <t>54,17; 67,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,87; 67,68</t>
+          <t>54,05; 67,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,54; 59,59</t>
+          <t>48,39; 59,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,7; 55,95</t>
+          <t>46,82; 56,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>62,62; 73,22</t>
+          <t>62,12; 73,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,33; 82,32</t>
+          <t>72,72; 81,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,23; 74,12</t>
+          <t>63,58; 74,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,65; 81,37</t>
+          <t>75,79; 81,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60,91; 69,39</t>
+          <t>61,19; 69,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>67,64; 74,87</t>
+          <t>67,42; 75,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>59,43; 67,21</t>
+          <t>59,34; 67,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>64,96; 70,02</t>
+          <t>65,18; 70,46</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,88; 19,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,5; 20,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,35; 19,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,67; 27,49</t>
+          <t>19,57; 27,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,56; 30,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,71; 33,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,35; 30,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,85; 50,76</t>
+          <t>35,8; 50,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,75; 24,87</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,18; 26,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,75; 24,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,68; 39,22</t>
+          <t>29,64; 40,15</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32277</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25948</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17745</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26581</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33035</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38542</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24457</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34745</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65312</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64490</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>42202</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61327</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22561; 44500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17218; 37499</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10344; 28256</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13792; 50331</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23066; 47024</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28264; 51947</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16557; 35700</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22058; 54542</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50590; 81042</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49795; 79114</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30706; 57693</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42792; 91891</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42769</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57557</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48651</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64925</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88402</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54561</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60067</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72564</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>131171</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>112118</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108718</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>137489</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30896; 56827</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43797; 73879</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35872; 63850</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47747; 84741</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70374; 106821</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>39685; 69435</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46144; 74438</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43255; 93968</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>108386; 153084</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92164; 134753</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89727; 131300</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100221; 165759</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67972</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>84133</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75872</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>141270</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>134069</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95687</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>124860</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>209242</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>218202</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>171559</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>225506</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53719; 83713</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67049; 104823</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60544; 95965</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82284; 120353</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>120330; 163659</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>115331; 157968</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>78530; 115880</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>110717; 141997</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>184339; 237002</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>192996; 248392</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>149917; 199921</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>203044; 253188</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95196</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>86319</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>120233</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>171340</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>154291</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>166553</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>153215</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>241446</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>249487</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>252872</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>273448</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>412786</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76910; 113909</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70479; 107181</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98741; 141584</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>75013; 247301</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>133846; 175092</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143462; 189185</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>128249; 175512</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>199972; 266454</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>222468; 276789</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>223335; 284001</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>242295; 303436</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>244050; 501471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>119141</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114030</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>116831</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>219732</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>155254</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>207162</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>204539</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>251831</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>274395</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>321192</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>321370</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>471563</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100822; 137341</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>95979; 134020</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98721; 137947</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>199663; 240156</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>136372; 175106</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>183111; 228207</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>179418; 226386</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>234064; 268261</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>248201; 302059</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>290947; 350871</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>293607; 353507</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>442936; 499150</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>110481</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>124563</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>107104</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>131479</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>187084</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>210449</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>203394</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>412730</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>297565</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>335013</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>310498</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>544209</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>95134; 127003</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>105481; 142468</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>90464; 124443</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>116970; 146398</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>169804; 204955</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>190432; 228883</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>184941; 223476</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>305343; 527842</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>273679; 323268</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>306467; 360215</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>281512; 337223</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>421331; 770885</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>127847</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>150877</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>138891</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>145101</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>227370</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>302329</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>273414</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>332555</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>355218</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>453206</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>412305</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>477656</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>113694; 140689</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>133898; 167141</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>123972; 152899</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>132038; 157946</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>207440; 244306</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>282851; 318294</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>251250; 294559</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>320682; 344029</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>332766; 378006</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>429240; 478003</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>386523; 437896</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>459629; 496860</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>595684</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>643427</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>625326</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>859805</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>986706</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1113667</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1014774</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1470732</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1582390</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1757093</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1640099</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2330537</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>552983; 642865</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>596618; 691523</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>584514; 670850</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>676549; 949686</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>931344; 1036340</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1056150; 1177238</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>963266; 1073617</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1309506; 1857299</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1514374; 1655188</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1684174; 1834398</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1567702; 1716472</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2109118; 2856413</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>